--- a/src/test/resources/AssignmentData.xlsx
+++ b/src/test/resources/AssignmentData.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Iphone" sheetId="2" r:id="rId2"/>
     <sheet name="Iphone11" r:id="rId6" sheetId="3"/>
+    <sheet name="Iphone36" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Apple iPhone 14 (Starlight, 128 GB)</t>
   </si>
@@ -130,6 +131,39 @@
   </si>
   <si>
     <t>Apple iPhone 15 (Yellow, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹57,999</t>
+  </si>
+  <si>
+    <t>₹77,499</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹65,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Plus (Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹75,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Plus (Pink, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus ((PRODUCT)RED, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹95,999</t>
   </si>
 </sst>
 </file>
@@ -896,4 +930,209 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>